--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
@@ -690,6 +690,9 @@
       <c r="J7">
         <v>0.4864000199535451</v>
       </c>
+      <c r="K7">
+        <v>0.2305062539156956</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -719,6 +722,9 @@
       <c r="I8">
         <v>0.4905753488922937</v>
       </c>
+      <c r="J8">
+        <v>0.2193215401759246</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -745,6 +751,9 @@
       <c r="H9">
         <v>0.4747295398651078</v>
       </c>
+      <c r="I9">
+        <v>0.2109873117084238</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -768,6 +777,9 @@
       <c r="G10">
         <v>0.4434018934814807</v>
       </c>
+      <c r="H10">
+        <v>0.2077622620068982</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -788,6 +800,9 @@
       <c r="F11">
         <v>0.455790019309198</v>
       </c>
+      <c r="G11">
+        <v>0.1868984584576193</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -805,6 +820,9 @@
       <c r="E12">
         <v>0.4708952909610505</v>
       </c>
+      <c r="F12">
+        <v>0.2101374940836094</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -819,6 +837,9 @@
       <c r="D13">
         <v>0.4079223719710875</v>
       </c>
+      <c r="E13">
+        <v>0.2201756597651073</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -830,6 +851,9 @@
       <c r="C14">
         <v>0.5072404221531239</v>
       </c>
+      <c r="D14">
+        <v>0.1085991175498651</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -838,10 +862,16 @@
       <c r="B15">
         <v>0.5513001133925729</v>
       </c>
+      <c r="C15">
+        <v>0.130019622424466</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.4258116923289144</v>
+        <v>0.5943607454143283</v>
       </c>
       <c r="C2">
-        <v>0.9137991786852327</v>
+        <v>-0.7999902782140788</v>
       </c>
       <c r="D2">
-        <v>-1.123820937538137</v>
+        <v>1.704534436060835</v>
       </c>
       <c r="E2">
-        <v>1.741067231350056</v>
+        <v>-0.4942653685160635</v>
       </c>
       <c r="F2">
-        <v>-0.4144229093415396</v>
+        <v>0.9369121485761228</v>
       </c>
       <c r="G2">
-        <v>0.8942681565657697</v>
+        <v>0.272830226748868</v>
       </c>
       <c r="H2">
-        <v>0.2666196653805725</v>
+        <v>0.7671803625714035</v>
       </c>
       <c r="I2">
-        <v>0.782109773296418</v>
+        <v>0.1142017009502766</v>
       </c>
       <c r="J2">
-        <v>0.1100327947258539</v>
+        <v>0.539033769963857</v>
       </c>
       <c r="K2">
-        <v>0.5363482025840406</v>
+        <v>0.5940197511622507</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.9362271583182413</v>
+        <v>-0.7775622985810702</v>
       </c>
       <c r="C3">
-        <v>-1.121217397975688</v>
+        <v>1.707137975623284</v>
       </c>
       <c r="D3">
-        <v>1.718999545696041</v>
+        <v>-0.5163330541700787</v>
       </c>
       <c r="E3">
-        <v>-0.4204048896458946</v>
+        <v>0.9309301682717679</v>
       </c>
       <c r="F3">
-        <v>0.8889249063833586</v>
+        <v>0.2674869765664569</v>
       </c>
       <c r="G3">
-        <v>0.2562511320102062</v>
+        <v>0.7568118292010373</v>
       </c>
       <c r="H3">
-        <v>0.7736324511727942</v>
+        <v>0.1057243788266528</v>
       </c>
       <c r="I3">
-        <v>0.1022604864190431</v>
+        <v>0.5312614616570462</v>
       </c>
       <c r="J3">
-        <v>0.527724229051072</v>
+        <v>0.5853957776292821</v>
       </c>
       <c r="K3">
-        <v>0.5878314504560218</v>
+        <v>0.7117978212943072</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.099792826518468</v>
+        <v>1.728562547080504</v>
       </c>
       <c r="C4">
-        <v>1.839177394495253</v>
+        <v>-0.3961552053708663</v>
       </c>
       <c r="D4">
-        <v>-0.5095992340596777</v>
+        <v>0.8417358238579847</v>
       </c>
       <c r="E4">
-        <v>0.8591979025347809</v>
+        <v>0.2377599727178791</v>
       </c>
       <c r="F4">
-        <v>0.2648772520401163</v>
+        <v>0.7654379492309473</v>
       </c>
       <c r="G4">
-        <v>0.747692277747359</v>
+        <v>0.07978420540121761</v>
       </c>
       <c r="H4">
-        <v>0.07948192339081561</v>
+        <v>0.5084828986288187</v>
       </c>
       <c r="I4">
-        <v>0.5141061939024542</v>
+        <v>0.5717777424806643</v>
       </c>
       <c r="J4">
-        <v>0.569310653270846</v>
+        <v>0.6932770241091315</v>
       </c>
       <c r="K4">
-        <v>0.6926620895998143</v>
+        <v>-0.2007560336349775</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1.796856762174863</v>
+        <v>-0.4384758376912558</v>
       </c>
       <c r="C5">
-        <v>-0.5388037079154109</v>
+        <v>0.8125313500022515</v>
       </c>
       <c r="D5">
-        <v>0.8561773027298597</v>
+        <v>0.2347393729129579</v>
       </c>
       <c r="E5">
-        <v>0.2460159684286359</v>
+        <v>0.7465766656194669</v>
       </c>
       <c r="F5">
-        <v>0.7273611466821548</v>
+        <v>0.05945307433601332</v>
       </c>
       <c r="G5">
-        <v>0.06495176795656782</v>
+        <v>0.4939527431945709</v>
       </c>
       <c r="H5">
-        <v>0.4974651484101862</v>
+        <v>0.5551366969883963</v>
       </c>
       <c r="I5">
-        <v>0.5517268078420958</v>
+        <v>0.6756931786803813</v>
       </c>
       <c r="J5">
-        <v>0.6761882060697715</v>
+        <v>-0.2172299171650203</v>
       </c>
       <c r="K5">
-        <v>-0.2163793123768544</v>
+        <v>0.553751414566908</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1986059672975008</v>
+        <v>1.152729090620161</v>
       </c>
       <c r="C6">
-        <v>0.9315483645137967</v>
+        <v>0.310110434696895</v>
       </c>
       <c r="D6">
-        <v>0.05492268211563681</v>
+        <v>0.5554833793064679</v>
       </c>
       <c r="E6">
-        <v>0.7520550592688879</v>
+        <v>0.08414698692274653</v>
       </c>
       <c r="F6">
-        <v>0.07433117151286378</v>
+        <v>0.5033321467508669</v>
       </c>
       <c r="G6">
-        <v>0.4426543497987951</v>
+        <v>0.5003258983770053</v>
       </c>
       <c r="H6">
-        <v>0.532832716953426</v>
+        <v>0.6567990877917116</v>
       </c>
       <c r="I6">
-        <v>0.6613242052547258</v>
+        <v>-0.2320939179800661</v>
       </c>
       <c r="J6">
-        <v>-0.2450910230062252</v>
+        <v>0.5250397039375373</v>
       </c>
       <c r="K6">
-        <v>0.5297973106668776</v>
+        <v>0.2638965897873631</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.382243236504047</v>
+        <v>0.7608053066871455</v>
       </c>
       <c r="C7">
-        <v>0.1020333843279952</v>
+        <v>0.6025940815188262</v>
       </c>
       <c r="D7">
-        <v>0.5117718284780797</v>
+        <v>-0.1561362438680617</v>
       </c>
       <c r="E7">
-        <v>0.1102762525787266</v>
+        <v>0.5392772278167297</v>
       </c>
       <c r="F7">
-        <v>0.4406035923592023</v>
+        <v>0.4982751409374124</v>
       </c>
       <c r="G7">
-        <v>0.4562644775173959</v>
+        <v>0.5802308483556813</v>
       </c>
       <c r="H7">
-        <v>0.6339248108794424</v>
+        <v>-0.2594933123553494</v>
       </c>
       <c r="I7">
-        <v>-0.2713800732039505</v>
+        <v>0.4987506537398119</v>
       </c>
       <c r="J7">
-        <v>0.4864000199535451</v>
-      </c>
-      <c r="K7">
-        <v>0.2305062539156956</v>
+        <v>0.2204992990740305</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +696,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.4143589712515336</v>
+        <v>0.9149196684423646</v>
       </c>
       <c r="C8">
-        <v>0.645060568213604</v>
+        <v>-0.02284750413253739</v>
       </c>
       <c r="D8">
-        <v>-0.06880216923746499</v>
+        <v>0.3601988060005381</v>
       </c>
       <c r="E8">
-        <v>0.4687978311297695</v>
+        <v>0.5264693797079796</v>
       </c>
       <c r="F8">
-        <v>0.4922897887097893</v>
+        <v>0.6162561595480749</v>
       </c>
       <c r="G8">
-        <v>0.5963832406752287</v>
+        <v>-0.2970348825595631</v>
       </c>
       <c r="H8">
-        <v>-0.2769224122913118</v>
+        <v>0.4932083146524507</v>
       </c>
       <c r="I8">
-        <v>0.4905753488922937</v>
-      </c>
-      <c r="J8">
-        <v>0.2193215401759246</v>
+        <v>0.2246746280127792</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +725,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.8806510593214452</v>
+        <v>0.2127429869753038</v>
       </c>
       <c r="C9">
-        <v>0.01587657163684458</v>
+        <v>0.4448775468748477</v>
       </c>
       <c r="D9">
-        <v>0.3231974644960524</v>
+        <v>0.3808690130742625</v>
       </c>
       <c r="E9">
-        <v>0.5022435315690319</v>
+        <v>0.6262099024073174</v>
       </c>
       <c r="F9">
-        <v>0.6117484103747737</v>
+        <v>-0.2816697128600181</v>
       </c>
       <c r="G9">
-        <v>-0.3157707472487348</v>
+        <v>0.4543599796950276</v>
       </c>
       <c r="H9">
-        <v>0.4747295398651078</v>
-      </c>
-      <c r="I9">
-        <v>0.2109873117084238</v>
+        <v>0.2088288189855932</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +751,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.3269007581182274</v>
+        <v>0.7559017333562305</v>
       </c>
       <c r="C10">
-        <v>0.4402862389072476</v>
+        <v>0.4979577874854577</v>
       </c>
       <c r="D10">
-        <v>0.3397793901194651</v>
+        <v>0.4637457609577506</v>
       </c>
       <c r="E10">
-        <v>0.6407073608399754</v>
+        <v>-0.2527107623948165</v>
       </c>
       <c r="F10">
-        <v>-0.2800278747938312</v>
+        <v>0.4901028521499312</v>
       </c>
       <c r="G10">
-        <v>0.4434018934814807</v>
-      </c>
-      <c r="H10">
-        <v>0.2077622620068982</v>
+        <v>0.1775011726019661</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +774,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.687111416311362</v>
+        <v>0.7447829648895721</v>
       </c>
       <c r="C11">
-        <v>0.3574352576573546</v>
+        <v>0.4814016284956401</v>
       </c>
       <c r="D11">
-        <v>0.5460851217289808</v>
+        <v>-0.347333001505811</v>
       </c>
       <c r="E11">
-        <v>-0.2478104865453511</v>
+        <v>0.5223202403984113</v>
       </c>
       <c r="F11">
-        <v>0.455790019309198</v>
-      </c>
-      <c r="G11">
-        <v>0.1868984584576193</v>
+        <v>0.1898892984296834</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +794,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5971116170735665</v>
+        <v>0.7210779879118521</v>
       </c>
       <c r="C12">
-        <v>0.6311093651981943</v>
+        <v>-0.2623087580365975</v>
       </c>
       <c r="D12">
-        <v>-0.3642950649033653</v>
+        <v>0.4058356620403972</v>
       </c>
       <c r="E12">
-        <v>0.4708952909610505</v>
-      </c>
-      <c r="F12">
-        <v>0.2101374940836094</v>
+        <v>0.2049945700815359</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +811,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7959694422322816</v>
+        <v>-0.09744868100251025</v>
       </c>
       <c r="C13">
-        <v>-0.350757792655449</v>
+        <v>0.4193729342883134</v>
       </c>
       <c r="D13">
-        <v>0.4079223719710875</v>
-      </c>
-      <c r="E13">
-        <v>0.2201756597651073</v>
+        <v>0.1420216510915729</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +825,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.09690875079004102</v>
+        <v>0.6732219761537215</v>
       </c>
       <c r="C14">
-        <v>0.5072404221531239</v>
-      </c>
-      <c r="D14">
-        <v>0.1085991175498651</v>
+        <v>0.2413397012736094</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5513001133925729</v>
-      </c>
-      <c r="C15">
-        <v>0.130019622424466</v>
+        <v>0.2853993925130583</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_GVA_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_first_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.5943607454143283</v>
+        <v>-0.4258116923289144</v>
       </c>
       <c r="C2">
-        <v>-0.7999902782140788</v>
+        <v>0.9137991786852327</v>
       </c>
       <c r="D2">
-        <v>1.704534436060835</v>
+        <v>-1.123820937538137</v>
       </c>
       <c r="E2">
-        <v>-0.4942653685160635</v>
+        <v>1.741067231350056</v>
       </c>
       <c r="F2">
-        <v>0.9369121485761228</v>
+        <v>-0.4144229093415396</v>
       </c>
       <c r="G2">
-        <v>0.272830226748868</v>
+        <v>0.8942681565657697</v>
       </c>
       <c r="H2">
-        <v>0.7671803625714035</v>
+        <v>0.2666196653805725</v>
       </c>
       <c r="I2">
-        <v>0.1142017009502766</v>
+        <v>0.782109773296418</v>
       </c>
       <c r="J2">
-        <v>0.539033769963857</v>
+        <v>0.1100327947258539</v>
       </c>
       <c r="K2">
-        <v>0.5940197511622507</v>
+        <v>0.5363482025840406</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.7775622985810702</v>
+        <v>0.9362271583182413</v>
       </c>
       <c r="C3">
-        <v>1.707137975623284</v>
+        <v>-1.121217397975688</v>
       </c>
       <c r="D3">
-        <v>-0.5163330541700787</v>
+        <v>1.718999545696041</v>
       </c>
       <c r="E3">
-        <v>0.9309301682717679</v>
+        <v>-0.4204048896458946</v>
       </c>
       <c r="F3">
-        <v>0.2674869765664569</v>
+        <v>0.8889249063833586</v>
       </c>
       <c r="G3">
-        <v>0.7568118292010373</v>
+        <v>0.2562511320102062</v>
       </c>
       <c r="H3">
-        <v>0.1057243788266528</v>
+        <v>0.7736324511727942</v>
       </c>
       <c r="I3">
-        <v>0.5312614616570462</v>
+        <v>0.1022604864190431</v>
       </c>
       <c r="J3">
-        <v>0.5853957776292821</v>
+        <v>0.527724229051072</v>
       </c>
       <c r="K3">
-        <v>0.7117978212943072</v>
+        <v>0.5878314504560218</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.728562547080504</v>
+        <v>-1.099792826518468</v>
       </c>
       <c r="C4">
-        <v>-0.3961552053708663</v>
+        <v>1.839177394495253</v>
       </c>
       <c r="D4">
-        <v>0.8417358238579847</v>
+        <v>-0.5095992340596777</v>
       </c>
       <c r="E4">
-        <v>0.2377599727178791</v>
+        <v>0.8591979025347809</v>
       </c>
       <c r="F4">
-        <v>0.7654379492309473</v>
+        <v>0.2648772520401163</v>
       </c>
       <c r="G4">
-        <v>0.07978420540121761</v>
+        <v>0.747692277747359</v>
       </c>
       <c r="H4">
-        <v>0.5084828986288187</v>
+        <v>0.07948192339081561</v>
       </c>
       <c r="I4">
-        <v>0.5717777424806643</v>
+        <v>0.5141061939024542</v>
       </c>
       <c r="J4">
-        <v>0.6932770241091315</v>
+        <v>0.569310653270846</v>
       </c>
       <c r="K4">
-        <v>-0.2007560336349775</v>
+        <v>0.6926620895998143</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.4384758376912558</v>
+        <v>1.796856762174863</v>
       </c>
       <c r="C5">
-        <v>0.8125313500022515</v>
+        <v>-0.5388037079154109</v>
       </c>
       <c r="D5">
-        <v>0.2347393729129579</v>
+        <v>0.8561773027298597</v>
       </c>
       <c r="E5">
-        <v>0.7465766656194669</v>
+        <v>0.2460159684286359</v>
       </c>
       <c r="F5">
-        <v>0.05945307433601332</v>
+        <v>0.7273611466821548</v>
       </c>
       <c r="G5">
-        <v>0.4939527431945709</v>
+        <v>0.06495176795656782</v>
       </c>
       <c r="H5">
-        <v>0.5551366969883963</v>
+        <v>0.4974651484101862</v>
       </c>
       <c r="I5">
-        <v>0.6756931786803813</v>
+        <v>0.5517268078420958</v>
       </c>
       <c r="J5">
-        <v>-0.2172299171650203</v>
+        <v>0.6761882060697715</v>
       </c>
       <c r="K5">
-        <v>0.553751414566908</v>
+        <v>-0.2163793123768544</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.152729090620161</v>
+        <v>-0.1986059672975008</v>
       </c>
       <c r="C6">
-        <v>0.310110434696895</v>
+        <v>0.9315483645137967</v>
       </c>
       <c r="D6">
-        <v>0.5554833793064679</v>
+        <v>0.05492268211563681</v>
       </c>
       <c r="E6">
-        <v>0.08414698692274653</v>
+        <v>0.7520550592688879</v>
       </c>
       <c r="F6">
-        <v>0.5033321467508669</v>
+        <v>0.07433117151286378</v>
       </c>
       <c r="G6">
-        <v>0.5003258983770053</v>
+        <v>0.4426543497987951</v>
       </c>
       <c r="H6">
-        <v>0.6567990877917116</v>
+        <v>0.532832716953426</v>
       </c>
       <c r="I6">
-        <v>-0.2320939179800661</v>
+        <v>0.6613242052547258</v>
       </c>
       <c r="J6">
-        <v>0.5250397039375373</v>
+        <v>-0.2450910230062252</v>
       </c>
       <c r="K6">
-        <v>0.2638965897873631</v>
+        <v>0.5297973106668776</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.7608053066871455</v>
+        <v>1.382243236504047</v>
       </c>
       <c r="C7">
-        <v>0.6025940815188262</v>
+        <v>0.1020333843279952</v>
       </c>
       <c r="D7">
-        <v>-0.1561362438680617</v>
+        <v>0.5117718284780797</v>
       </c>
       <c r="E7">
-        <v>0.5392772278167297</v>
+        <v>0.1102762525787266</v>
       </c>
       <c r="F7">
-        <v>0.4982751409374124</v>
+        <v>0.4406035923592023</v>
       </c>
       <c r="G7">
-        <v>0.5802308483556813</v>
+        <v>0.4562644775173959</v>
       </c>
       <c r="H7">
-        <v>-0.2594933123553494</v>
+        <v>0.6339248108794424</v>
       </c>
       <c r="I7">
-        <v>0.4987506537398119</v>
+        <v>-0.2713800732039505</v>
       </c>
       <c r="J7">
-        <v>0.2204992990740305</v>
+        <v>0.4864000199535451</v>
+      </c>
+      <c r="K7">
+        <v>0.2305062539156956</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9149196684423646</v>
+        <v>0.4143589712515336</v>
       </c>
       <c r="C8">
-        <v>-0.02284750413253739</v>
+        <v>0.645060568213604</v>
       </c>
       <c r="D8">
-        <v>0.3601988060005381</v>
+        <v>-0.06880216923746499</v>
       </c>
       <c r="E8">
-        <v>0.5264693797079796</v>
+        <v>0.4687978311297695</v>
       </c>
       <c r="F8">
-        <v>0.6162561595480749</v>
+        <v>0.4922897887097893</v>
       </c>
       <c r="G8">
-        <v>-0.2970348825595631</v>
+        <v>0.5963832406752287</v>
       </c>
       <c r="H8">
-        <v>0.4932083146524507</v>
+        <v>-0.2769224122913118</v>
       </c>
       <c r="I8">
-        <v>0.2246746280127792</v>
+        <v>0.4905753488922937</v>
+      </c>
+      <c r="J8">
+        <v>0.2193215401759246</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.2127429869753038</v>
+        <v>0.8806510593214452</v>
       </c>
       <c r="C9">
-        <v>0.4448775468748477</v>
+        <v>0.01587657163684458</v>
       </c>
       <c r="D9">
-        <v>0.3808690130742625</v>
+        <v>0.3231974644960524</v>
       </c>
       <c r="E9">
-        <v>0.6262099024073174</v>
+        <v>0.5022435315690319</v>
       </c>
       <c r="F9">
-        <v>-0.2816697128600181</v>
+        <v>0.6117484103747737</v>
       </c>
       <c r="G9">
-        <v>0.4543599796950276</v>
+        <v>-0.3157707472487348</v>
       </c>
       <c r="H9">
-        <v>0.2088288189855932</v>
+        <v>0.4747295398651078</v>
+      </c>
+      <c r="I9">
+        <v>0.2109873117084238</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.7559017333562305</v>
+        <v>0.3269007581182274</v>
       </c>
       <c r="C10">
-        <v>0.4979577874854577</v>
+        <v>0.4402862389072476</v>
       </c>
       <c r="D10">
-        <v>0.4637457609577506</v>
+        <v>0.3397793901194651</v>
       </c>
       <c r="E10">
-        <v>-0.2527107623948165</v>
+        <v>0.6407073608399754</v>
       </c>
       <c r="F10">
-        <v>0.4901028521499312</v>
+        <v>-0.2800278747938312</v>
       </c>
       <c r="G10">
-        <v>0.1775011726019661</v>
+        <v>0.4434018934814807</v>
+      </c>
+      <c r="H10">
+        <v>0.2077622620068982</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.7447829648895721</v>
+        <v>0.687111416311362</v>
       </c>
       <c r="C11">
-        <v>0.4814016284956401</v>
+        <v>0.3574352576573546</v>
       </c>
       <c r="D11">
-        <v>-0.347333001505811</v>
+        <v>0.5460851217289808</v>
       </c>
       <c r="E11">
-        <v>0.5223202403984113</v>
+        <v>-0.2478104865453511</v>
       </c>
       <c r="F11">
-        <v>0.1898892984296834</v>
+        <v>0.455790019309198</v>
+      </c>
+      <c r="G11">
+        <v>0.1868984584576193</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.7210779879118521</v>
+        <v>0.5971116170735665</v>
       </c>
       <c r="C12">
-        <v>-0.2623087580365975</v>
+        <v>0.6311093651981943</v>
       </c>
       <c r="D12">
-        <v>0.4058356620403972</v>
+        <v>-0.3642950649033653</v>
       </c>
       <c r="E12">
-        <v>0.2049945700815359</v>
+        <v>0.4708952909610505</v>
+      </c>
+      <c r="F12">
+        <v>0.2101374940836094</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,13 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.09744868100251025</v>
+        <v>0.7959694422322816</v>
       </c>
       <c r="C13">
-        <v>0.4193729342883134</v>
+        <v>-0.350757792655449</v>
       </c>
       <c r="D13">
-        <v>0.1420216510915729</v>
+        <v>0.4079223719710875</v>
+      </c>
+      <c r="E13">
+        <v>0.2201756597651073</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6732219761537215</v>
+        <v>-0.09690875079004102</v>
       </c>
       <c r="C14">
-        <v>0.2413397012736094</v>
+        <v>0.5072404221531239</v>
+      </c>
+      <c r="D14">
+        <v>0.1085991175498651</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.2853993925130583</v>
+        <v>0.5513001133925729</v>
+      </c>
+      <c r="C15">
+        <v>0.130019622424466</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.3662627537369125</v>
       </c>
     </row>
   </sheetData>
